--- a/баг-репорт тестовое задание ASTRUM.xlsx
+++ b/баг-репорт тестовое задание ASTRUM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +88,24 @@
   <si>
     <t>1. Перейти по ссылке https://drive.google.com/drive/folders/1dxUknHDsqvMSZZlT9TeN39gfA028XBEw?
 usp=sharing. 2. Открыть видео Prologue.mp4. 3. Отмотать таймлайн на 17 минут 32 секунды.</t>
+  </si>
+  <si>
+    <t>Серьезность</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Низкая</t>
+  </si>
+  <si>
+    <t>Средний</t>
+  </si>
+  <si>
+    <t>Средняя</t>
+  </si>
+  <si>
+    <t>Низкий</t>
   </si>
 </sst>
 </file>
@@ -190,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -225,6 +243,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,9 +697,11 @@
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" customWidth="1"/>
     <col min="5" max="5" width="146" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -694,8 +717,14 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -709,8 +738,14 @@
         <v>6</v>
       </c>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="343.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="343.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -724,8 +759,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="360.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="360.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -739,8 +776,14 @@
         <v>13</v>
       </c>
       <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -754,78 +797,84 @@
         <v>19</v>
       </c>
       <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5" ht="266.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="266.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="9"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="12"/>
       <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
